--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr codeName="DieseArbeitsmappe" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuaodermatt/My Data/BLJ/Blj Projekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuaodermatt/My Data/BLJ/Ultimate-Battlesnake/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3AD592C-19D5-6942-90F8-A7601FBE8618}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567B5C6F-6F66-CB44-B427-AD5142B0538F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="58">
   <si>
     <t>Nr.</t>
   </si>
@@ -170,12 +170,6 @@
   </si>
   <si>
     <t>Anforderung #07</t>
-  </si>
-  <si>
-    <t>Anforderung #08</t>
-  </si>
-  <si>
-    <t>Anforderung #09</t>
   </si>
   <si>
     <t>Testfälle erstellen</t>
@@ -362,7 +356,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,12 +451,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="49">
     <border>
@@ -1107,7 +1095,7 @@
     </xf>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1408,6 +1396,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1438,14 +1430,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2135,7 +2119,7 @@
   <dimension ref="A1:BJ43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="AR24" sqref="AR24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1"/>
@@ -2256,7 +2240,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="86"/>
       <c r="H3" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -2386,7 +2370,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="22"/>
       <c r="H5" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I5" s="23"/>
       <c r="J5" s="6"/>
@@ -2454,88 +2438,88 @@
     <row r="7" spans="1:62" ht="15" customHeight="1">
       <c r="A7" s="9"/>
       <c r="B7" s="27"/>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="90"/>
+      <c r="D7" s="91"/>
       <c r="E7" s="28" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="91" t="s">
+      <c r="G7" s="92" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="92"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="92"/>
+      <c r="R7" s="92"/>
+      <c r="S7" s="92"/>
+      <c r="T7" s="93"/>
+      <c r="U7" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="91" t="s">
+      <c r="V7" s="92"/>
+      <c r="W7" s="92"/>
+      <c r="X7" s="92"/>
+      <c r="Y7" s="92"/>
+      <c r="Z7" s="92"/>
+      <c r="AA7" s="93"/>
+      <c r="AB7" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="91"/>
-      <c r="R7" s="91"/>
-      <c r="S7" s="91"/>
-      <c r="T7" s="92"/>
-      <c r="U7" s="91" t="s">
+      <c r="AC7" s="92"/>
+      <c r="AD7" s="92"/>
+      <c r="AE7" s="92"/>
+      <c r="AF7" s="92"/>
+      <c r="AG7" s="92"/>
+      <c r="AH7" s="93"/>
+      <c r="AI7" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="V7" s="91"/>
-      <c r="W7" s="91"/>
-      <c r="X7" s="91"/>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="91"/>
-      <c r="AA7" s="92"/>
-      <c r="AB7" s="93" t="s">
+      <c r="AJ7" s="92"/>
+      <c r="AK7" s="92"/>
+      <c r="AL7" s="92"/>
+      <c r="AM7" s="92"/>
+      <c r="AN7" s="92"/>
+      <c r="AO7" s="93"/>
+      <c r="AP7" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="AC7" s="91"/>
-      <c r="AD7" s="91"/>
-      <c r="AE7" s="91"/>
-      <c r="AF7" s="91"/>
-      <c r="AG7" s="91"/>
-      <c r="AH7" s="92"/>
-      <c r="AI7" s="91" t="s">
+      <c r="AQ7" s="92"/>
+      <c r="AR7" s="92"/>
+      <c r="AS7" s="92"/>
+      <c r="AT7" s="92"/>
+      <c r="AU7" s="92"/>
+      <c r="AV7" s="93"/>
+      <c r="AW7" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="AJ7" s="91"/>
-      <c r="AK7" s="91"/>
-      <c r="AL7" s="91"/>
-      <c r="AM7" s="91"/>
-      <c r="AN7" s="91"/>
-      <c r="AO7" s="92"/>
-      <c r="AP7" s="93" t="s">
+      <c r="AX7" s="92"/>
+      <c r="AY7" s="92"/>
+      <c r="AZ7" s="92"/>
+      <c r="BA7" s="92"/>
+      <c r="BB7" s="92"/>
+      <c r="BC7" s="93"/>
+      <c r="BD7" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="AQ7" s="91"/>
-      <c r="AR7" s="91"/>
-      <c r="AS7" s="91"/>
-      <c r="AT7" s="91"/>
-      <c r="AU7" s="91"/>
-      <c r="AV7" s="92"/>
-      <c r="AW7" s="91" t="s">
-        <v>51</v>
-      </c>
-      <c r="AX7" s="91"/>
-      <c r="AY7" s="91"/>
-      <c r="AZ7" s="91"/>
-      <c r="BA7" s="91"/>
-      <c r="BB7" s="91"/>
-      <c r="BC7" s="92"/>
-      <c r="BD7" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="BE7" s="91"/>
-      <c r="BF7" s="91"/>
-      <c r="BG7" s="91"/>
-      <c r="BH7" s="91"/>
-      <c r="BI7" s="91"/>
-      <c r="BJ7" s="94"/>
+      <c r="BE7" s="92"/>
+      <c r="BF7" s="92"/>
+      <c r="BG7" s="92"/>
+      <c r="BH7" s="92"/>
+      <c r="BI7" s="92"/>
+      <c r="BJ7" s="95"/>
     </row>
     <row r="8" spans="1:62" ht="45" customHeight="1">
       <c r="A8" s="10" t="s">
@@ -2552,7 +2536,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>17</v>
@@ -2805,14 +2789,14 @@
         <v>12</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10" s="84"/>
       <c r="E10" s="48">
         <v>1</v>
       </c>
       <c r="F10" s="88" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G10" s="53"/>
       <c r="H10" s="54"/>
@@ -2876,7 +2860,7 @@
         <v>102</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="49"/>
       <c r="D11" s="83">
@@ -2890,7 +2874,7 @@
       <c r="G11" s="59"/>
       <c r="H11" s="60"/>
       <c r="I11" s="61"/>
-      <c r="J11" s="99"/>
+      <c r="J11" s="90"/>
       <c r="K11" s="85"/>
       <c r="L11" s="62"/>
       <c r="M11" s="58" t="s">
@@ -3028,17 +3012,17 @@
         <v>104</v>
       </c>
       <c r="B13" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="49" t="s">
         <v>57</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>59</v>
       </c>
       <c r="D13" s="83"/>
       <c r="E13" s="50">
         <v>1</v>
       </c>
       <c r="F13" s="88" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G13" s="59"/>
       <c r="H13" s="60"/>
@@ -3078,8 +3062,8 @@
       <c r="AP13" s="59"/>
       <c r="AQ13" s="60"/>
       <c r="AR13" s="55"/>
-      <c r="AS13" s="87"/>
-      <c r="AT13" s="55"/>
+      <c r="AS13" s="55"/>
+      <c r="AT13" s="87"/>
       <c r="AU13" s="66"/>
       <c r="AV13" s="67"/>
       <c r="AW13" s="59"/>
@@ -3176,7 +3160,7 @@
         <v>201</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15" s="49"/>
       <c r="D15" s="83">
@@ -3185,7 +3169,7 @@
       </c>
       <c r="E15" s="50"/>
       <c r="F15" s="89" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G15" s="53"/>
       <c r="H15" s="54"/>
@@ -3249,7 +3233,7 @@
         <v>202</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" s="49"/>
       <c r="D16" s="83">
@@ -3463,7 +3447,7 @@
         <v>301</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C19" s="49"/>
       <c r="D19" s="83">
@@ -3534,7 +3518,7 @@
         <v>302</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C20" s="49"/>
       <c r="D20" s="83">
@@ -3552,8 +3536,8 @@
       <c r="M20" s="58"/>
       <c r="N20" s="59"/>
       <c r="O20" s="60"/>
-      <c r="P20" s="100"/>
-      <c r="Q20" s="55"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
       <c r="R20" s="56"/>
       <c r="S20" s="57"/>
       <c r="T20" s="58"/>
@@ -3624,13 +3608,13 @@
       <c r="N21" s="59"/>
       <c r="O21" s="60"/>
       <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="56"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
       <c r="S21" s="57"/>
       <c r="T21" s="58"/>
       <c r="U21" s="59"/>
       <c r="V21" s="60"/>
-      <c r="W21" s="55"/>
+      <c r="W21" s="63"/>
       <c r="X21" s="55"/>
       <c r="Y21" s="56"/>
       <c r="Z21" s="57"/>
@@ -3696,13 +3680,13 @@
       <c r="O22" s="60"/>
       <c r="P22" s="55"/>
       <c r="Q22" s="55"/>
-      <c r="R22" s="56"/>
+      <c r="R22" s="55"/>
       <c r="S22" s="57"/>
       <c r="T22" s="58"/>
       <c r="U22" s="59"/>
       <c r="V22" s="60"/>
-      <c r="W22" s="55"/>
-      <c r="X22" s="55"/>
+      <c r="W22" s="63"/>
+      <c r="X22" s="63"/>
       <c r="Y22" s="56"/>
       <c r="Z22" s="57"/>
       <c r="AA22" s="58"/>
@@ -3774,7 +3758,7 @@
       <c r="V23" s="60"/>
       <c r="W23" s="61"/>
       <c r="X23" s="61"/>
-      <c r="Y23" s="56"/>
+      <c r="Y23" s="63"/>
       <c r="Z23" s="57"/>
       <c r="AA23" s="58"/>
       <c r="AB23" s="59"/>
@@ -3850,9 +3834,9 @@
       <c r="AA24" s="58"/>
       <c r="AB24" s="59"/>
       <c r="AC24" s="60"/>
-      <c r="AD24" s="55"/>
-      <c r="AE24" s="55"/>
-      <c r="AF24" s="56"/>
+      <c r="AD24" s="63"/>
+      <c r="AE24" s="63"/>
+      <c r="AF24" s="63"/>
       <c r="AG24" s="57"/>
       <c r="AH24" s="58"/>
       <c r="AI24" s="59"/>
@@ -3923,7 +3907,7 @@
       <c r="AC25" s="60"/>
       <c r="AD25" s="55"/>
       <c r="AE25" s="55"/>
-      <c r="AF25" s="56"/>
+      <c r="AF25" s="63"/>
       <c r="AG25" s="57"/>
       <c r="AH25" s="58"/>
       <c r="AI25" s="59"/>
@@ -4006,7 +3990,7 @@
       <c r="AO26" s="58"/>
       <c r="AP26" s="59"/>
       <c r="AQ26" s="60"/>
-      <c r="AR26" s="55"/>
+      <c r="AR26" s="63"/>
       <c r="AS26" s="55"/>
       <c r="AT26" s="56"/>
       <c r="AU26" s="57"/>
@@ -4078,7 +4062,7 @@
       <c r="AP27" s="59"/>
       <c r="AQ27" s="60"/>
       <c r="AR27" s="55"/>
-      <c r="AS27" s="55"/>
+      <c r="AS27" s="63"/>
       <c r="AT27" s="56"/>
       <c r="AU27" s="57"/>
       <c r="AV27" s="58"/>
@@ -4101,9 +4085,7 @@
       <c r="A28" s="12">
         <v>310</v>
       </c>
-      <c r="B28" s="46" t="s">
-        <v>31</v>
-      </c>
+      <c r="B28" s="46"/>
       <c r="C28" s="49"/>
       <c r="D28" s="83">
         <f t="shared" si="0"/>
@@ -4172,9 +4154,7 @@
       <c r="A29" s="12">
         <v>311</v>
       </c>
-      <c r="B29" s="46" t="s">
-        <v>32</v>
-      </c>
+      <c r="B29" s="46"/>
       <c r="C29" s="49"/>
       <c r="D29" s="83">
         <f t="shared" si="0"/>
@@ -4387,7 +4367,7 @@
         <v>401</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C32" s="49"/>
       <c r="D32" s="83">
@@ -4458,7 +4438,7 @@
         <v>402</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C33" s="49"/>
       <c r="D33" s="83">
@@ -4529,7 +4509,7 @@
         <v>403</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C34" s="49"/>
       <c r="D34" s="83">
@@ -4743,7 +4723,7 @@
         <v>501</v>
       </c>
       <c r="B37" s="46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C37" s="49"/>
       <c r="D37" s="83">
@@ -4957,7 +4937,7 @@
         <v>601</v>
       </c>
       <c r="B40" s="46" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C40" s="49"/>
       <c r="D40" s="83">
@@ -5028,7 +5008,7 @@
         <v>602</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C41" s="49"/>
       <c r="D41" s="83">
@@ -5449,10 +5429,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16" thickBot="1"/>
     <row r="2" spans="1:6" ht="18" thickTop="1" thickBot="1">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="98"/>
+      <c r="B2" s="99"/>
       <c r="C2" s="79" t="s">
         <v>14</v>
       </c>
@@ -5461,11 +5441,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" thickTop="1" thickBot="1">
-      <c r="A3" s="95" t="str">
+      <c r="A3" s="96" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
       </c>
-      <c r="B3" s="96"/>
+      <c r="B3" s="97"/>
       <c r="C3" s="80">
         <f>Zeitplanung!C9</f>
         <v>5</v>
@@ -5478,11 +5458,11 @@
       <c r="F3" s="81"/>
     </row>
     <row r="4" spans="1:6" ht="18" thickTop="1" thickBot="1">
-      <c r="A4" s="95" t="str">
+      <c r="A4" s="96" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
       </c>
-      <c r="B4" s="96"/>
+      <c r="B4" s="97"/>
       <c r="C4" s="80">
         <f>Zeitplanung!C14</f>
         <v>0</v>
@@ -5495,11 +5475,11 @@
       <c r="F4" s="81"/>
     </row>
     <row r="5" spans="1:6" ht="18" thickTop="1" thickBot="1">
-      <c r="A5" s="95" t="str">
+      <c r="A5" s="96" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
       </c>
-      <c r="B5" s="96"/>
+      <c r="B5" s="97"/>
       <c r="C5" s="80">
         <f>Zeitplanung!C18</f>
         <v>0</v>
@@ -5512,11 +5492,11 @@
       <c r="F5" s="81"/>
     </row>
     <row r="6" spans="1:6" ht="18" thickTop="1" thickBot="1">
-      <c r="A6" s="95" t="str">
+      <c r="A6" s="96" t="str">
         <f>Zeitplanung!B31</f>
         <v>Testen</v>
       </c>
-      <c r="B6" s="96"/>
+      <c r="B6" s="97"/>
       <c r="C6" s="80">
         <f>Zeitplanung!C31</f>
         <v>0</v>
@@ -5528,11 +5508,11 @@
       <c r="F6" s="81"/>
     </row>
     <row r="7" spans="1:6" ht="18" thickTop="1" thickBot="1">
-      <c r="A7" s="95" t="str">
+      <c r="A7" s="96" t="str">
         <f>Zeitplanung!B36</f>
         <v>Diverses</v>
       </c>
-      <c r="B7" s="96"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="80">
         <f>Zeitplanung!C36</f>
         <v>0</v>
@@ -5544,11 +5524,11 @@
       <c r="F7" s="81"/>
     </row>
     <row r="8" spans="1:6" ht="18" thickTop="1" thickBot="1">
-      <c r="A8" s="95" t="str">
+      <c r="A8" s="96" t="str">
         <f>Zeitplanung!B39</f>
         <v>Abschluss</v>
       </c>
-      <c r="B8" s="96"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="80">
         <f>Zeitplanung!C39</f>
         <v>0</v>
